--- a/PCB/pcb_rev4/CO2_Flux_PCB_Rev_4_v7.xlsx
+++ b/PCB/pcb_rev4/CO2_Flux_PCB_Rev_4_v7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lascheer.FORTLEWIS.000\Downloads\PCB - REV4 - V 6-28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lascheer/Documents/GitHub/co2_flux_summer_24/PCB/pcb_rev4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53FAE8C3-29CB-4850-A49D-8B4CFDF45FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BC44AB-7B27-794C-8D9A-138DC8815F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2_Flux_PCB_Rev_4_v7" sheetId="1" r:id="rId1"/>
@@ -328,8 +328,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +464,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -646,7 +661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -761,6 +776,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -806,8 +932,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -853,7 +989,420 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -866,10 +1415,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BB57607-2E1F-5C4C-96FD-AC6E38A30A5F}" name="Table1" displayName="Table1" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:J1048576" xr:uid="{2BB57607-2E1F-5C4C-96FD-AC6E38A30A5F}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{E0187587-EAAA-694C-8BBC-53D780D9B671}" name="Qty" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{73D5872E-3732-1F45-9F00-4075A81733FD}" name="Value" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A3EAF822-D2B4-2345-A30A-822374289158}" name="Parts" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FDC267C9-7CF5-ED45-88C6-69D026C5B613}" name="Device" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BE78B8C4-9406-1E46-9BDF-5AB6EB99A003}" name="Package" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{59F0CDEE-121C-054B-860D-4A1F8851D68C}" name="DigiKey Part No" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{B92737DE-2E2B-D84E-AAD0-9E42AEFBADBB}" name="Cost" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{3397BBE2-080F-9741-9EB5-9344D3BBABE6}" name="Cost Total" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{B2E0A1EA-C977-8A47-BE59-6FB7CF3583F7}" name="Qty Order" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{4AC7627C-A17A-EB42-8783-40D30A617119}" name="Inventory" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -907,7 +1475,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1013,7 +1581,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1155,812 +1723,835 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="D1" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="2"/>
+    <col min="8" max="9" width="9.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="I5" s="2">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>220</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>1.2</v>
-      </c>
-      <c r="H2">
-        <v>1.2</v>
-      </c>
-      <c r="I2">
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>0.95</v>
-      </c>
-      <c r="H3">
-        <v>0.95</v>
-      </c>
-      <c r="I3">
+      <c r="B27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>1.55</v>
-      </c>
-      <c r="H4">
-        <v>1.55</v>
-      </c>
-      <c r="I4">
+      <c r="B28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>0.31</v>
-      </c>
-      <c r="H5">
-        <v>1.24</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6">
-        <v>0.71</v>
-      </c>
-      <c r="H6">
-        <v>0.71</v>
-      </c>
-      <c r="I6">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="2">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="2">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>220</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7">
-        <v>0.1</v>
-      </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="H8">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H29">
-        <v>15.97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="1048576" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1048576" s="8"/>
+      <c r="B1048576" s="9"/>
+      <c r="C1048576" s="9"/>
+      <c r="D1048576" s="9"/>
+      <c r="E1048576" s="9"/>
+      <c r="F1048576" s="9"/>
+      <c r="G1048576" s="9"/>
+      <c r="H1048576" s="9"/>
+      <c r="I1048576" s="9"/>
+      <c r="J1048576" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>